--- a/development/07-connections/B1 - option 2.xlsx
+++ b/development/07-connections/B1 - option 2.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ahmed\Desktop\Graduation-project\development\07-connections\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ahmed\Desktop\Graduation-project\development\07-connections\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11508"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="27360" windowHeight="11505"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="100">
   <si>
     <t>web length</t>
   </si>
@@ -585,6 +585,12 @@
   </si>
   <si>
     <t>web plan perpendicular stiffeners , welded on flages</t>
+  </si>
+  <si>
+    <t>Qx</t>
+  </si>
+  <si>
+    <t>Qy</t>
   </si>
 </sst>
 </file>
@@ -871,7 +877,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -940,6 +946,13 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1250,13 +1263,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>751114</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>43543</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>307615</xdr:colOff>
-      <xdr:row>49</xdr:row>
+      <xdr:row>51</xdr:row>
       <xdr:rowOff>60305</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1550,29 +1563,29 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W34"/>
+  <dimension ref="A1:W36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.88671875" customWidth="1"/>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
-    <col min="11" max="11" width="46.5546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.44140625" customWidth="1"/>
-    <col min="13" max="13" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="43.5546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="26.33203125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="20.33203125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="23.109375" customWidth="1"/>
-    <col min="23" max="23" width="8.44140625" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
+    <col min="11" max="11" width="46.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="43.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="26.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.140625" customWidth="1"/>
+    <col min="23" max="23" width="8.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="18" t="s">
         <v>35</v>
       </c>
@@ -1598,7 +1611,7 @@
       <c r="V1" s="18"/>
       <c r="W1" s="18"/>
     </row>
-    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="18"/>
       <c r="B2" s="18"/>
       <c r="C2" s="18"/>
@@ -1616,7 +1629,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
     </row>
-    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1640,7 +1653,7 @@
         <v>95</v>
       </c>
       <c r="R3" s="9" t="str">
-        <f>IF((B7-L3)/2-L12&gt;0,(B7-L3)/2-L12,"no stiffeners required ")</f>
+        <f>IF((B7-L3)/2-L14&gt;0,(B7-L3)/2-L14,"no stiffeners required ")</f>
         <v xml:space="preserve">no stiffeners required </v>
       </c>
       <c r="S3" s="3" t="s">
@@ -1650,14 +1663,14 @@
         <v>45</v>
       </c>
       <c r="V3" s="2">
-        <f>(PI()*B15*B15/4)/100</f>
+        <f>(PI()*B17*B17/4)/100</f>
         <v>0.78539816339744828</v>
       </c>
       <c r="W3" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1" t="s">
         <v>59</v>
       </c>
@@ -1681,7 +1694,7 @@
         <v>28</v>
       </c>
       <c r="R4" s="9">
-        <f>IF(B19&gt;0, IF(B21, B21, _xlfn.CEILING.MATH(L3/3)), 0)</f>
+        <f>IF(B21&gt;0, IF(B23, B23, _xlfn.CEILING.MATH(L3/3)), 0)</f>
         <v>0</v>
       </c>
       <c r="S4" s="3" t="s">
@@ -1691,14 +1704,14 @@
         <v>43</v>
       </c>
       <c r="V4" s="2">
-        <f>0.35 * B15 * 0.85 *V3</f>
+        <f>0.35 * B17 * 0.85 *V3</f>
         <v>2.3365595361074085</v>
       </c>
       <c r="W4" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1722,7 +1735,7 @@
         <v>82</v>
       </c>
       <c r="R5" s="2">
-        <f>IF(B19 &gt;0, R4/16, 0)</f>
+        <f>IF(B21 &gt;0, R4/16, 0)</f>
         <v>0</v>
       </c>
       <c r="S5" s="3" t="s">
@@ -1732,14 +1745,14 @@
         <v>49</v>
       </c>
       <c r="V5" s="2">
-        <f>B15*B12*0.1*0.85*1.2*B14</f>
+        <f>B17*B14*0.1*0.85*1.2*B16</f>
         <v>10.608000000000001</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1763,7 +1776,7 @@
         <v>81</v>
       </c>
       <c r="R6" s="9">
-        <f>MAX(B20,R5)</f>
+        <f>MAX(B22,R5)</f>
         <v>2</v>
       </c>
       <c r="S6" s="3" t="s">
@@ -1780,7 +1793,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="4" t="s">
         <v>8</v>
       </c>
@@ -1814,14 +1827,14 @@
         <v>54</v>
       </c>
       <c r="V7" s="2">
-        <f>V6*B16</f>
+        <f>V6*B18</f>
         <v>4.673119072214817</v>
       </c>
       <c r="W7" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
         <v>9</v>
       </c>
@@ -1850,14 +1863,14 @@
         <v>68</v>
       </c>
       <c r="V8" s="2">
-        <f>MIN(300, 20*B15) / 10</f>
+        <f>MIN(300, 20*B17) / 10</f>
         <v>20</v>
       </c>
       <c r="W8" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
         <v>11</v>
       </c>
@@ -1881,7 +1894,7 @@
         <v>75</v>
       </c>
       <c r="R9" s="2">
-        <f>L19*B8*L6</f>
+        <f>L21*B8*L6</f>
         <v>15.125454545454556</v>
       </c>
       <c r="S9" s="3" t="s">
@@ -1891,678 +1904,719 @@
         <v>34</v>
       </c>
       <c r="V9" s="2" t="str">
-        <f>IF(V7&gt;B10, "safe", "unsafe")</f>
+        <f>IF(V7&gt;B12, "safe", "unsafe")</f>
         <v>safe</v>
       </c>
       <c r="W9" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>12</v>
+        <v>98</v>
       </c>
       <c r="B10" s="5">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K10" s="4"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="3"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="3"/>
+      <c r="U10" s="26"/>
+      <c r="V10" s="27"/>
+      <c r="W10" s="28"/>
+    </row>
+    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B11" s="5">
+        <v>1.8</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K11" s="4"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="3"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="3"/>
+      <c r="U11" s="26"/>
+      <c r="V11" s="27"/>
+      <c r="W11" s="28"/>
+    </row>
+    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="5">
+        <f>POWER(POWER(B10,2)+POWER(B11,2),0.5)</f>
+        <v>4.3863424398922621</v>
+      </c>
+      <c r="C12" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K10" s="4" t="s">
+      <c r="K12" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="L10" s="2">
-        <f>B12*B8</f>
+      <c r="L12" s="2">
+        <f>B14*B8</f>
         <v>90</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M12" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="4" t="s">
+      <c r="Q12" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R10" s="2" t="e">
-        <f>R9/B19</f>
+      <c r="R12" s="2" t="e">
+        <f>R9/B21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="3" t="s">
+      <c r="S12" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="4" t="s">
+    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A13" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="5">
+      <c r="B13" s="5">
         <v>77</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="C13" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K11" s="4" t="s">
+      <c r="K13" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="L11" s="2">
-        <f>B8*POWER(B12,3)/12</f>
+      <c r="L13" s="2">
+        <f>B8*POWER(B14,3)/12</f>
         <v>30</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M13" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q11" s="4" t="s">
+      <c r="Q13" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R11" s="2" t="e">
-        <f>R10/(R8*R7)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S11" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="B12" s="5">
-        <v>2</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="L12" s="9">
-        <f>POWER(L21*POWER(B12,3)/(6*L19),0.5)</f>
-        <v>6.951648993498849</v>
-      </c>
-      <c r="M12" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q12" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="R12" s="2">
-        <f>L17 * (R4-L22) / L23</f>
-        <v>-1.1848272727272744</v>
-      </c>
-      <c r="S12" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="U12" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="V12" s="18"/>
-      <c r="W12" s="18"/>
-    </row>
-    <row r="13" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A13" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B13" s="2">
-        <v>3.6</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="K13" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="L13" s="20"/>
-      <c r="M13" s="21"/>
-      <c r="Q13" s="4" t="s">
-        <v>78</v>
-      </c>
       <c r="R13" s="2" t="e">
-        <f>POWER(POWER(R12,2)+3*POWER(R11,2),0.5)</f>
+        <f>R12/(R8*R7)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="S13" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
-      <c r="W13" s="18"/>
     </row>
     <row r="14" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="B14" s="2">
-        <v>5.2</v>
+        <v>24</v>
+      </c>
+      <c r="B14" s="5">
+        <v>2</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="L14" s="1">
-        <f>L19*POWER(L7,2)/2</f>
-        <v>7.5180303030303035</v>
+        <v>84</v>
+      </c>
+      <c r="L14" s="9">
+        <f>POWER(L23*POWER(B14,3)/(6*L21),0.5)</f>
+        <v>6.951648993498849</v>
       </c>
       <c r="M14" s="3" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R14" s="2" t="e">
-        <f>IF(AND(R13 &lt; V14*1.1, R12&lt;V14,R11&lt;V14), "safe", "unsafe")</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="S14" s="3"/>
-      <c r="U14" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="V14" s="2">
-        <f>0.2 * B14</f>
-        <v>1.04</v>
-      </c>
-      <c r="W14" s="3" t="s">
-        <v>61</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="R14" s="2">
+        <f>L19 * (R4-L24) / L25</f>
+        <v>-1.1848272727272744</v>
+      </c>
+      <c r="S14" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="U14" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="V14" s="18"/>
+      <c r="W14" s="18"/>
     </row>
     <row r="15" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3.6</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K15" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+      <c r="Q15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R15" s="2" t="e">
+        <f>POWER(POWER(R14,2)+3*POWER(R13,2),0.5)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S15" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="U15" s="18"/>
+      <c r="V15" s="18"/>
+      <c r="W15" s="18"/>
+    </row>
+    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" s="2">
+        <v>5.2</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="K16" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="L16" s="1">
+        <f>L21*POWER(L7,2)/2</f>
+        <v>7.5180303030303035</v>
+      </c>
+      <c r="M16" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="R16" s="2" t="e">
+        <f>IF(AND(R15 &lt; V16*1.1, R14&lt;V16,R13&lt;V16), "safe", "unsafe")</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="S16" s="3"/>
+      <c r="U16" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="V16" s="2">
+        <f>0.2 * B16</f>
+        <v>1.04</v>
+      </c>
+      <c r="W16" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="5">
+      <c r="B17" s="5">
         <v>10</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="C17" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="K15" s="4" t="s">
+      <c r="K17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="L15" s="4">
-        <f>L19*POWER(L6,2)/2</f>
+      <c r="L17" s="4">
+        <f>L21*POWER(L6,2)/2</f>
         <v>0.78988484848484952</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M17" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="Q15" s="4" t="s">
+      <c r="Q17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R15" s="2">
-        <f>R5*R4*B19</f>
+      <c r="R17" s="2">
+        <f>R5*R4*B21</f>
         <v>0</v>
       </c>
-      <c r="S15" s="3" t="s">
+      <c r="S17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="U15" s="1" t="s">
+      <c r="U17" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="V15" s="2">
-        <f>2*B5+2*(B5-B4-2)-B19*2*R6</f>
+      <c r="V17" s="2">
+        <f>2*B5+2*(B5-B4-2)-B21*2*R6</f>
         <v>73</v>
       </c>
-      <c r="W15" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="4" t="s">
+      <c r="W17" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A18" s="4" t="s">
         <v>53</v>
       </c>
-      <c r="B16" s="5">
+      <c r="B18" s="5">
         <v>2</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="C18" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="K16" s="4" t="s">
+      <c r="K18" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="L16" s="4">
-        <f>L14*B7</f>
+      <c r="L18" s="4">
+        <f>L16*B7</f>
         <v>413.49166666666667</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q16" s="4" t="s">
+      <c r="Q18" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R16" s="2">
+      <c r="R18" s="2">
         <f>POWER(R4,3)*R5/12</f>
         <v>0</v>
       </c>
-      <c r="S16" s="3" t="s">
+      <c r="S18" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="U16" s="1" t="s">
+      <c r="U18" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="V16" s="2">
+      <c r="V18" s="2">
         <f>(B3-2)*2</f>
         <v>84</v>
       </c>
-      <c r="W16" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="4" t="s">
+      <c r="W18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>62</v>
       </c>
-      <c r="B17" s="5">
+      <c r="B19" s="5">
         <v>2</v>
       </c>
-      <c r="C17" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K17" s="4" t="s">
+      <c r="C19" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K19" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="L17" s="2">
-        <f>L15*B8</f>
+      <c r="L19" s="2">
+        <f>L17*B8</f>
         <v>35.544818181818229</v>
       </c>
-      <c r="M17" s="3" t="s">
+      <c r="M19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="U17" s="1" t="s">
+      <c r="U19" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="V17" s="2">
-        <f>B9/(V15*B17 + V16*B18)</f>
+      <c r="V19" s="2">
+        <f>B9/(V17*B19 + V18*B20)</f>
         <v>0.98552338530066819</v>
       </c>
-      <c r="W17" s="3" t="s">
+      <c r="W19" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="18" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="4" t="s">
+    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B20" s="5">
         <v>0.4</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="K18" s="19" t="s">
+      <c r="C20" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="19" t="s">
         <v>71</v>
       </c>
-      <c r="L18" s="20"/>
-      <c r="M18" s="21"/>
-      <c r="U18" s="4" t="s">
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="U20" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="V18" s="2">
-        <f>B10/(V15*B17 + V16*B18)</f>
-        <v>2.2271714922048998E-2</v>
-      </c>
-      <c r="W18" s="3" t="s">
+      <c r="V20" s="2">
+        <f>B12/(V17*B19 + V18*B20)</f>
+        <v>2.4422842092941328E-2</v>
+      </c>
+      <c r="W20" s="3" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="19" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="4" t="s">
+    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B21" s="5">
         <v>0</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="C21" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K19" s="4" t="s">
+      <c r="K21" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L19" s="2">
+      <c r="L21" s="2">
         <f>B9/L9</f>
         <v>7.1515151515151518E-2</v>
       </c>
-      <c r="M19" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q19" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="R19" s="13"/>
-      <c r="S19" s="14"/>
-      <c r="U19" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="V19" s="2">
-        <f>POWER(POWER(V17,2) +3*POWER(V18,2),0.5)</f>
-        <v>0.98627806973043675</v>
-      </c>
-      <c r="W19" s="3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B20" s="5">
-        <v>2</v>
-      </c>
-      <c r="C20" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="L20" s="8" t="str">
-        <f>IF(L19*1000 &lt; B11, "safe", "unsafe")</f>
-        <v>safe</v>
-      </c>
-      <c r="M20" s="3"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="16"/>
-      <c r="S20" s="17"/>
-      <c r="U20" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="V20" s="2" t="str">
-        <f>IF(AND(MAX(V17:V18) &lt; V14, V19 &lt; V14*1.1), "safe", "unsafe")</f>
-        <v>safe</v>
-      </c>
-      <c r="W20" s="3"/>
-    </row>
-    <row r="21" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="B21" s="5">
-        <v>20</v>
-      </c>
-      <c r="C21" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="L21" s="2">
-        <f>B13*0.72</f>
-        <v>2.5920000000000001</v>
-      </c>
       <c r="M21" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="Q21" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="R21" s="9">
-        <f>IF((B8-B5)/2 - L12 &gt; 0, (B8-B5)/2 - L12, "no stiffeners required")</f>
-        <v>5.548351006501151</v>
-      </c>
-      <c r="S21" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q21" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="R21" s="13"/>
+      <c r="S21" s="14"/>
+      <c r="U21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="V21" s="2">
+        <f>POWER(POWER(V19,2) +3*POWER(V20,2),0.5)</f>
+        <v>0.98643082302925811</v>
+      </c>
+      <c r="W21" s="3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B22" s="5">
         <v>2</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="C22" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="L22" s="8" t="str">
+        <f>IF(L21*1000 &lt; B13, "safe", "unsafe")</f>
+        <v>safe</v>
+      </c>
+      <c r="M22" s="3"/>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="16"/>
+      <c r="S22" s="17"/>
+      <c r="U22" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="V22" s="2" t="str">
+        <f>IF(AND(MAX(V19:V20) &lt; V16, V21 &lt; V16*1.1), "safe", "unsafe")</f>
+        <v>safe</v>
+      </c>
+      <c r="W22" s="3"/>
+    </row>
+    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="B23" s="5">
+        <v>20</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K23" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="L23" s="2">
+        <f>B15*0.72</f>
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="M23" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q23" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="R23" s="9">
+        <f>IF((B8-B5)/2 - L14 &gt; 0, (B8-B5)/2 - L14, "no stiffeners required")</f>
+        <v>5.548351006501151</v>
+      </c>
+      <c r="S23" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="B24" s="5">
+        <v>2</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="K22" s="4" t="s">
+      <c r="K24" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="L22" s="2">
-        <f>(L10*B12/2 + B19 * R15 * (R4/2 +B12)) / ( L10 +B19*R15)</f>
+      <c r="L24" s="2">
+        <f>(L12*B14/2 + B21 * R17 * (R4/2 +B14)) / ( L12 +B21*R17)</f>
         <v>1</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q22" s="4" t="s">
+      <c r="M24" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q24" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R22" s="9">
-        <f>IF(B22&gt;0, IF(B24, B24, _xlfn.CEILING.MATH(L3/3)), 0)</f>
+      <c r="R24" s="9">
+        <f>IF(B24&gt;0, IF(B26, B26, _xlfn.CEILING.MATH(L3/3)), 0)</f>
         <v>20</v>
       </c>
-      <c r="S22" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A23" s="4" t="s">
+      <c r="S24" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="5">
+      <c r="B25" s="5">
         <v>2</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K23" s="4" t="s">
+      <c r="C25" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K25" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="L23" s="2">
-        <f>L11+B19*R16+L10*POWER(B12/2-L22,2)+B19*R15*POWER(B12+R4/2-L22,2)</f>
+      <c r="L25" s="2">
+        <f>L13+B21*R18+L12*POWER(B14/2-L24,2)+B21*R17*POWER(B14+R4/2-L24,2)</f>
         <v>30</v>
       </c>
-      <c r="M23" s="3" t="s">
+      <c r="M25" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q23" s="4" t="s">
+      <c r="Q25" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="R23" s="2">
-        <f>IF(B22 &gt;0, R22/16, 0)</f>
+      <c r="R25" s="2">
+        <f>IF(B24 &gt;0, R24/16, 0)</f>
         <v>1.25</v>
       </c>
-      <c r="S23" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="4" t="s">
+      <c r="S25" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A26" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="5">
+      <c r="B26" s="5">
         <v>20</v>
       </c>
-      <c r="C24" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="K24" s="4" t="s">
+      <c r="C26" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K26" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="L24" s="2">
-        <f>L17 * MAX(B12+R4-L22,L22) / L23</f>
+      <c r="L26" s="2">
+        <f>L19 * MAX(B14+R4-L24,L24) / L25</f>
         <v>1.1848272727272744</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M26" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="Q24" s="4" t="s">
+      <c r="Q26" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="R24" s="9">
-        <f>MAX(B23,R23)</f>
+      <c r="R26" s="9">
+        <f>MAX(B25,R25)</f>
         <v>2</v>
       </c>
-      <c r="S24" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K25" s="4" t="s">
+      <c r="S26" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K27" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="L25" s="2">
-        <f>(L10*B12/2 + B22 * R33 * (R22/2 +B12)) / ( L10 +B22*R33)</f>
+      <c r="L27" s="2">
+        <f>(L12*B14/2 + B24 * R35 * (R24/2 +B14)) / ( L12 +B24*R35)</f>
         <v>6.7894736842105265</v>
       </c>
-      <c r="M25" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q25" s="4" t="s">
+      <c r="M27" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q27" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="R25" s="10">
-        <f>MIN(R24,B6)</f>
+      <c r="R27" s="10">
+        <f>MIN(R26,B6)</f>
         <v>2</v>
       </c>
-      <c r="S25" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K26" s="4" t="s">
+      <c r="S27" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K28" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="L26" s="2">
-        <f>L11+B22*R34+L10*POWER(B12/2-L25,2)+B22*R33*POWER(B12+R22/2-L25,2)</f>
+      <c r="L28" s="2">
+        <f>L13+B24*R36+L12*POWER(B14/2-L27,2)+B24*R35*POWER(B14+R24/2-L27,2)</f>
         <v>7428.2456140350878</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M28" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="Q26" s="4" t="s">
+      <c r="Q28" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="R26" s="2">
-        <f>2*R22</f>
+      <c r="R28" s="2">
+        <f>2*R24</f>
         <v>40</v>
       </c>
-      <c r="S26" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="K27" s="4" t="s">
+      <c r="S28" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="24" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="K29" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="L27" s="2">
-        <f>L16 * (B12/2) / L26</f>
+      <c r="L29" s="2">
+        <f>L18 * (B14/2) / L28</f>
         <v>5.5664781181360853E-2</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="Q27" s="4" t="s">
+      <c r="Q29" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="R27" s="2">
-        <f>L19*B7*L7</f>
+      <c r="R29" s="2">
+        <f>L21*B7*L7</f>
         <v>57.033333333333339</v>
       </c>
-      <c r="S27" s="3" t="s">
+      <c r="S29" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:23" ht="18" x14ac:dyDescent="0.35">
-      <c r="K28" s="4" t="s">
+    <row r="30" spans="1:23" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="K30" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="L28" s="2" t="str">
-        <f>IF( AND(L27&lt;L21, L24&lt;L21), "safe", "unsafe")</f>
+      <c r="L30" s="2" t="str">
+        <f>IF( AND(L29&lt;L23, L26&lt;L23), "safe", "unsafe")</f>
         <v>safe</v>
       </c>
-      <c r="M28" s="3"/>
-      <c r="Q28" s="4" t="s">
+      <c r="M30" s="3"/>
+      <c r="Q30" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="R28" s="2">
-        <f>R27/B22</f>
+      <c r="R30" s="2">
+        <f>R29/B24</f>
         <v>28.516666666666669</v>
       </c>
-      <c r="S28" s="3" t="s">
+      <c r="S30" s="3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="Q29" s="4" t="s">
+    <row r="31" spans="1:23" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="Q31" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="R29" s="2">
-        <f>R28/(R26*R25)</f>
+      <c r="R31" s="2">
+        <f>R30/(R28*R27)</f>
         <v>0.35645833333333338</v>
-      </c>
-      <c r="S29" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="Q30" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="R30" s="2">
-        <f>L16 * (R22-L25) / L26</f>
-        <v>0.73536105665903029</v>
-      </c>
-      <c r="S30" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="23.4" x14ac:dyDescent="0.45">
-      <c r="Q31" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="R31" s="2">
-        <f>POWER(POWER(R30,2)+3*POWER(R29,2),0.5)</f>
-        <v>0.96017889679945523</v>
       </c>
       <c r="S31" s="3" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="18" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" ht="23.25" x14ac:dyDescent="0.35">
       <c r="Q32" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R32" s="2">
+        <f>L18 * (R24-L27) / L28</f>
+        <v>0.73536105665903029</v>
+      </c>
+      <c r="S32" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="33" spans="17:19" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="Q33" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="R33" s="2">
+        <f>POWER(POWER(R32,2)+3*POWER(R31,2),0.5)</f>
+        <v>0.96017889679945523</v>
+      </c>
+      <c r="S33" s="3" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="34" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q34" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="R32" s="2" t="str">
-        <f>IF(AND(R31 &lt; V14*1.1, R30&lt;V14,R29&lt;V14), "safe", "unsafe")</f>
+      <c r="R34" s="2" t="str">
+        <f>IF(AND(R33 &lt; V16*1.1, R32&lt;V16,R31&lt;V16), "safe", "unsafe")</f>
         <v>safe</v>
       </c>
-      <c r="S32" s="3"/>
-    </row>
-    <row r="33" spans="17:19" ht="18" x14ac:dyDescent="0.35">
-      <c r="Q33" s="4" t="s">
+      <c r="S34" s="3"/>
+    </row>
+    <row r="35" spans="17:19" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="Q35" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="R33" s="2">
-        <f>R23*R22*B22</f>
+      <c r="R35" s="2">
+        <f>R25*R24*B24</f>
         <v>50</v>
       </c>
-      <c r="S33" s="3" t="s">
+      <c r="S35" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="17:19" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="Q34" s="4" t="s">
+    <row r="36" spans="17:19" ht="26.25" x14ac:dyDescent="0.4">
+      <c r="Q36" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="R34" s="2">
-        <f>POWER(R22,3)*R23/12</f>
+      <c r="R36" s="2">
+        <f>POWER(R24,3)*R25/12</f>
         <v>833.33333333333337</v>
       </c>
-      <c r="S34" s="3" t="s">
+      <c r="S36" s="3" t="s">
         <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="Q19:S20"/>
+    <mergeCell ref="Q21:S22"/>
     <mergeCell ref="A1:C2"/>
     <mergeCell ref="K1:M2"/>
     <mergeCell ref="U1:W2"/>
-    <mergeCell ref="U12:W13"/>
-    <mergeCell ref="K18:M18"/>
-    <mergeCell ref="K13:M13"/>
+    <mergeCell ref="U14:W15"/>
+    <mergeCell ref="K20:M20"/>
+    <mergeCell ref="K15:M15"/>
     <mergeCell ref="F1:H2"/>
     <mergeCell ref="K8:M8"/>
     <mergeCell ref="Q1:S2"/>
   </mergeCells>
-  <conditionalFormatting sqref="V7:V9">
+  <conditionalFormatting sqref="V7:V11">
     <cfRule type="cellIs" dxfId="21" priority="28" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2570,7 +2624,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L28">
+  <conditionalFormatting sqref="L30">
     <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
@@ -2578,7 +2632,7 @@
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V9">
+  <conditionalFormatting sqref="V9:V11">
     <cfRule type="cellIs" dxfId="17" priority="22" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
@@ -2586,7 +2640,7 @@
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V18:V19">
+  <conditionalFormatting sqref="V20:V21">
     <cfRule type="cellIs" dxfId="15" priority="16" operator="lessThan">
       <formula>0</formula>
     </cfRule>
@@ -2594,7 +2648,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V19">
+  <conditionalFormatting sqref="V21">
     <cfRule type="cellIs" dxfId="13" priority="14" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
@@ -2602,7 +2656,7 @@
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="V20">
+  <conditionalFormatting sqref="V22">
     <cfRule type="cellIs" dxfId="11" priority="12" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
@@ -2610,7 +2664,7 @@
       <formula>"safe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="L20">
+  <conditionalFormatting sqref="L22">
     <cfRule type="cellIs" dxfId="9" priority="10" operator="equal">
       <formula>"unsafe"</formula>
     </cfRule>
@@ -2626,7 +2680,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R14">
+  <conditionalFormatting sqref="R16">
     <cfRule type="cellIs" dxfId="5" priority="6" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
@@ -2634,12 +2688,12 @@
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
+  <conditionalFormatting sqref="B22">
     <cfRule type="cellIs" dxfId="3" priority="31" operator="lessThan">
       <formula>$R$5</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="R32">
+  <conditionalFormatting sqref="R34">
     <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
       <formula>"safe"</formula>
     </cfRule>
@@ -2647,9 +2701,9 @@
       <formula>"unsafe"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B23">
+  <conditionalFormatting sqref="B25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="lessThan">
-      <formula>$R$23</formula>
+      <formula>$R$25</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
